--- a/biology/Zoologie/Chironomoidea/Chironomoidea.xlsx
+++ b/biology/Zoologie/Chironomoidea/Chironomoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chironomoidea sont une super-famille d'insectes diptères nématocères de l'infra-ordre des Culicomorpha.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La super-famille des Chironomoidea a été créée en 1917 par l'entomologiste américain John Russell Malloch (d) (1875-1963)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La super-famille des Chironomoidea a été créée en 1917 par l'entomologiste américain John Russell Malloch (d) (1875-1963).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste familles et genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (21 février 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (21 février 2022) :
 famille des Ceratopogonidae Grassi, 1900
 famille des Chironomidae Erichson, 1841
 famille des Simuliidae Newman, 1834
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) J. R. Malloch, « A preliminary classification of Diptera, exclusive of Pupipara, based upon larval and pupal characters, with keys to imagines in certain familis. Part 1 », Bulletin of the Illinois State Laboratory of Natural History, Bloomington, Inconnu, vol. 12,‎ 1917, p. 161-409 (OCLC 1308439, lire en ligne)</t>
         </is>
